--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,58 +46,76 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>thin</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>paint</t>
@@ -106,171 +124,132 @@
     <t>un</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
+    <t>could</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
-    <t>little</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -280,27 +259,30 @@
     <t>one</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -328,52 +310,64 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>games</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>nice</t>
   </si>
   <si>
     <t>cute</t>
@@ -385,16 +379,13 @@
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -758,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>0.9076923076923077</v>
@@ -898,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,31 +936,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L5">
-        <v>48</v>
-      </c>
-      <c r="M5">
-        <v>48</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -1027,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7150537634408602</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.6875</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1119,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,16 +1139,16 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K9">
-        <v>0.7916666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1169,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1177,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>0.5595408895265424</v>
+        <v>0.5954088952654233</v>
       </c>
       <c r="L11">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="M11">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1269,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6601941747572816</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C12">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>0.5217391304347826</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6554054054054054</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C13">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>0.5145228215767634</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L13">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M13">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>0.4745901639344262</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L14">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M14">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>0.3968253968253968</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L15">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K16">
-        <v>0.3962264150943396</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5517241379310345</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.3914373088685015</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L17">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>199</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K18">
-        <v>0.3855421686746988</v>
+        <v>0.35</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.325</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4939759036144578</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.265625</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4888888888888889</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K21">
-        <v>0.2377622377622378</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>109</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4857142857142857</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>0.2258064516129032</v>
+        <v>0.24</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>0.2208835341365462</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1869,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>194</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4418604651162791</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K24">
-        <v>0.216</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>98</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,37 +1918,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4315789473684211</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>0.1929824561403509</v>
+        <v>0.21875</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1966,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>920</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4312796208530806</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C26">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K26">
-        <v>0.188034188034188</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4285714285714285</v>
+        <v>0.40625</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>0.1168831168831169</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4251968503937008</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,31 +2086,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K28">
-        <v>0.1084415584415584</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1373</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2127,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4210526315789473</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,31 +2136,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>0.1006289308176101</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L29">
         <v>16</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4140625</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K30">
-        <v>0.09625668449197861</v>
+        <v>0.1805433829973707</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>338</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4126984126984127</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K31">
-        <v>0.08949416342412451</v>
+        <v>0.1096256684491979</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>234</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4044943820224719</v>
+        <v>0.35</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,31 +2286,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K32">
-        <v>0.08635097493036212</v>
+        <v>0.10625</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>328</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,31 +2336,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K33">
-        <v>0.06149732620320856</v>
+        <v>0.09935064935064936</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="N33">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>702</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,49 +2368,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3793103448275862</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C34">
+        <v>67</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>135</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34">
+        <v>0.07612456747404844</v>
+      </c>
+      <c r="L34">
         <v>22</v>
       </c>
-      <c r="D34">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>36</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34">
-        <v>0.05517241379310345</v>
-      </c>
-      <c r="L34">
-        <v>16</v>
-      </c>
       <c r="M34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.375</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K35">
-        <v>0.05279503105590062</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>305</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,13 +2468,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2495,31 +2486,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K36">
-        <v>0.0482897384305835</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="L36">
         <v>24</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>473</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3518518518518519</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,31 +2536,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K37">
-        <v>0.03185840707964602</v>
+        <v>0.0559254327563249</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>547</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3518518518518519</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,31 +2586,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K38">
-        <v>0.02556818181818182</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>686</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2618,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2962962962962963</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,7 +2636,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39">
+        <v>0.04270462633451957</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>0.89</v>
+      </c>
+      <c r="O39">
+        <v>0.11</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2653,13 +2668,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2671,7 +2686,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>0.78</v>
+      </c>
+      <c r="O40">
+        <v>0.22</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2679,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2835820895522388</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2697,7 +2736,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41">
+        <v>0.03556187766714083</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>0.93</v>
+      </c>
+      <c r="O41">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2705,7 +2768,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2833333333333333</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="C42">
         <v>17</v>
@@ -2723,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2731,13 +2794,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2786885245901639</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2749,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2757,13 +2820,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2772277227722773</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2775,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2783,13 +2846,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2702702702702703</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2801,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>54</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2809,13 +2872,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2463768115942029</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2827,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>52</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2835,25 +2898,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2371134020618557</v>
+        <v>0.2010050251256282</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2861,13 +2924,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.213768115942029</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2879,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2887,13 +2950,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2061855670103093</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2905,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2913,13 +2976,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2051282051282051</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2931,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>93</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2939,13 +3002,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.205</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2957,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2965,13 +3028,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1868131868131868</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2983,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2991,25 +3054,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1860119047619048</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C53">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>547</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3017,25 +3080,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1785714285714286</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>115</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3043,13 +3106,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1708860759493671</v>
+        <v>0.1328125</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3061,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>262</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3069,13 +3132,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1694915254237288</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3087,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3095,13 +3158,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1677215189873418</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="C57">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3113,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>263</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3121,13 +3184,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1656050955414013</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3139,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3147,25 +3210,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1527377521613833</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C59">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>294</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3173,25 +3236,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1481481481481481</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>92</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3199,25 +3262,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1479028697571744</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C61">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3225,13 +3288,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1448598130841121</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3243,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3251,13 +3314,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1366120218579235</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3269,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3277,13 +3340,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1361256544502618</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C64">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3295,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3303,25 +3366,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1338582677165354</v>
+        <v>0.1024498886414254</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E65">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>110</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3329,13 +3392,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1257142857142857</v>
+        <v>0.09375</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3347,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3355,25 +3418,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1230769230769231</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3381,25 +3444,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1086142322097378</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>238</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3407,13 +3470,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1055900621118012</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3425,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>144</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3433,13 +3496,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09677419354838709</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3451,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>224</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3459,25 +3522,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09574468085106383</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>170</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3485,25 +3548,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0949367088607595</v>
+        <v>0.06942148760330578</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>143</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3511,25 +3574,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09424083769633508</v>
+        <v>0.06823529411764706</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>173</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3537,25 +3600,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08823529411764706</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>155</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3563,25 +3626,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.08705357142857142</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>409</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3589,25 +3652,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.07947019867549669</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="C76">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E76">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>556</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3615,25 +3678,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07123287671232877</v>
+        <v>0.04747320061255743</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>339</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3641,25 +3704,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07082152974504249</v>
+        <v>0.03644646924829157</v>
       </c>
       <c r="C78">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F78">
-        <v>0.9299999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>328</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3667,181 +3730,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06666666666666667</v>
+        <v>0.03585657370517929</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F79">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.06074766355140187</v>
-      </c>
-      <c r="C80">
-        <v>26</v>
-      </c>
-      <c r="D80">
-        <v>32</v>
-      </c>
-      <c r="E80">
-        <v>0.19</v>
-      </c>
-      <c r="F80">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.06071428571428571</v>
-      </c>
-      <c r="C81">
-        <v>17</v>
-      </c>
-      <c r="D81">
-        <v>17</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.05343511450381679</v>
-      </c>
-      <c r="C82">
-        <v>42</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
-      </c>
-      <c r="E82">
-        <v>0.16</v>
-      </c>
-      <c r="F82">
-        <v>0.84</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C83">
-        <v>33</v>
-      </c>
-      <c r="D83">
-        <v>39</v>
-      </c>
-      <c r="E83">
-        <v>0.15</v>
-      </c>
-      <c r="F83">
-        <v>0.85</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.04572564612326044</v>
-      </c>
-      <c r="C84">
-        <v>23</v>
-      </c>
-      <c r="D84">
-        <v>24</v>
-      </c>
-      <c r="E84">
-        <v>0.04</v>
-      </c>
-      <c r="F84">
-        <v>0.96</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.03747072599531616</v>
-      </c>
-      <c r="C85">
-        <v>16</v>
-      </c>
-      <c r="D85">
-        <v>18</v>
-      </c>
-      <c r="E85">
-        <v>0.11</v>
-      </c>
-      <c r="F85">
-        <v>0.89</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>411</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
